--- a/docs/starships.xlsx
+++ b/docs/starships.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TA048699\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21045" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="113">
   <si>
     <t>Crew</t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>2.15km</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Research Vessel</t>
+  </si>
+  <si>
+    <t>75m</t>
+  </si>
+  <si>
+    <t>90m</t>
+  </si>
+  <si>
+    <t>Provectus VS-III</t>
+  </si>
+  <si>
+    <t>Provectus VA-III</t>
   </si>
 </sst>
 </file>
@@ -697,25 +715,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -773,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -802,7 +820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -831,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -860,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -889,7 +907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -918,7 +936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -947,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -976,7 +994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1182,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1242,7 +1260,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1286,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1312,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1364,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -1372,7 +1390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -1398,7 +1416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
@@ -1528,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
@@ -1554,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1707,6 +1725,58 @@
         <v>36</v>
       </c>
       <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39">
         <v>6</v>
       </c>
     </row>

--- a/docs/starships.xlsx
+++ b/docs/starships.xlsx
@@ -353,16 +353,16 @@
     <t>Research Vessel</t>
   </si>
   <si>
-    <t>75m</t>
-  </si>
-  <si>
-    <t>90m</t>
-  </si>
-  <si>
     <t>Provectus VS-III</t>
   </si>
   <si>
     <t>Provectus VA-III</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>35m</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,13 +1739,13 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G38" s="1">
         <v>6</v>
@@ -1765,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G39" s="1">
         <v>6</v>

--- a/docs/starships.xlsx
+++ b/docs/starships.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{120DB0E0-D298-45A5-9A9C-1459ED19798E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +102,6 @@
     <t>United Eroth Federation</t>
   </si>
   <si>
-    <t>Space Station</t>
-  </si>
-  <si>
     <t>AC-I-V1X</t>
   </si>
   <si>
@@ -363,12 +361,15 @@
   </si>
   <si>
     <t>35m</t>
+  </si>
+  <si>
+    <t>Capital Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,11 +715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -759,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -767,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -779,13 +780,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -808,7 +809,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1">
         <v>145000</v>
@@ -817,7 +818,7 @@
         <v>40000</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -837,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1">
         <v>155000</v>
@@ -846,7 +847,7 @@
         <v>35000</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -866,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1">
         <v>155000</v>
@@ -875,7 +876,7 @@
         <v>35000</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -895,7 +896,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1">
         <v>210000</v>
@@ -904,7 +905,7 @@
         <v>41000</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -924,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1">
         <v>210000</v>
@@ -933,7 +934,7 @@
         <v>41000</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -953,7 +954,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1">
         <v>210000</v>
@@ -962,7 +963,7 @@
         <v>41000</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -982,7 +983,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1">
         <v>89000</v>
@@ -991,7 +992,7 @@
         <v>16500</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1011,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="1">
         <v>89000</v>
@@ -1020,7 +1021,7 @@
         <v>16500</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1040,7 +1041,7 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1">
         <v>91000</v>
@@ -1049,7 +1050,7 @@
         <v>18000</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1057,19 +1058,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1">
         <v>45000</v>
@@ -1083,19 +1084,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1">
         <v>39000</v>
@@ -1112,16 +1113,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1">
         <v>8250</v>
@@ -1138,16 +1139,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1">
         <v>9300</v>
@@ -1164,16 +1165,16 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1">
         <v>9400</v>
@@ -1193,13 +1194,13 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1">
         <v>12500</v>
@@ -1219,13 +1220,13 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="1">
         <v>10750</v>
@@ -1236,22 +1237,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="1">
         <v>3500</v>
@@ -1262,22 +1263,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1">
         <v>4450</v>
@@ -1288,22 +1289,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1">
         <v>3500</v>
@@ -1323,13 +1324,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1">
         <v>950</v>
@@ -1349,13 +1350,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1">
         <v>925</v>
@@ -1375,13 +1376,13 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1">
         <v>1000</v>
@@ -1401,13 +1402,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1">
         <v>1000</v>
@@ -1418,7 +1419,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1427,13 +1428,13 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1">
         <v>625</v>
@@ -1444,7 +1445,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1453,13 +1454,13 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1">
         <v>475</v>
@@ -1470,7 +1471,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1479,13 +1480,13 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1">
         <v>330</v>
@@ -1496,7 +1497,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1505,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1">
         <v>180</v>
@@ -1522,22 +1523,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1">
         <v>90</v>
@@ -1548,22 +1549,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
         <v>86</v>
@@ -1574,22 +1575,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="1">
         <v>48</v>
@@ -1600,22 +1601,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="1">
         <v>51</v>
@@ -1626,22 +1627,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1">
         <v>55</v>
@@ -1652,22 +1653,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1">
         <v>58</v>
@@ -1678,22 +1679,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="1">
         <v>61</v>
@@ -1704,22 +1705,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1">
         <v>36</v>
@@ -1730,22 +1731,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
         <v>110</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
       </c>
       <c r="G38" s="1">
         <v>6</v>
@@ -1756,22 +1757,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G39" s="1">
         <v>6</v>
